--- a/Project/Excel Files/Member_Registration_NI.xlsx
+++ b/Project/Excel Files/Member_Registration_NI.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C33AA4-6049-4DD8-AC57-E2AF825C0B4E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35E2B75-806F-4008-818F-D06D20872BDB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,9 +506,6 @@
     <t>D:\\passport.png</t>
   </si>
   <si>
-    <t>SELECT_LIST_ITEM</t>
-  </si>
-  <si>
     <t>//*[@id="M_id_chosen"]/a/span</t>
   </si>
   <si>
@@ -519,6 +516,9 @@
   </si>
   <si>
     <t>D:\\signature.png</t>
+  </si>
+  <si>
+    <t>SELECT1</t>
   </si>
 </sst>
 </file>
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,7 +902,7 @@
     <col min="3" max="3" width="51.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="39.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1159,8 +1159,8 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="4" t="s">
-        <v>161</v>
+      <c r="B17" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>27</v>
@@ -1497,8 +1497,8 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="4" t="s">
-        <v>161</v>
+      <c r="B37" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>72</v>
@@ -1686,8 +1686,8 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="4" t="s">
-        <v>161</v>
+      <c r="B48" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>62</v>
@@ -1748,8 +1748,8 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="4" t="s">
-        <v>161</v>
+      <c r="B52" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>63</v>
@@ -1838,8 +1838,8 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="4" t="s">
-        <v>161</v>
+      <c r="B58" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>72</v>
@@ -1921,7 +1921,7 @@
         <v>7</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>18</v>
@@ -1933,7 +1933,7 @@
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>72</v>
@@ -1945,7 +1945,7 @@
         <v>138</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G64" s="2"/>
     </row>
@@ -1977,7 +1977,7 @@
         <v>138</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G66" s="2"/>
     </row>
@@ -2010,8 +2010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2123,10 +2123,10 @@
         <v>137</v>
       </c>
       <c r="Z1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -2209,7 +2209,7 @@
         <v>77</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -2292,7 +2292,7 @@
         <v>80</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -2375,7 +2375,7 @@
         <v>78</v>
       </c>
       <c r="AA4" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -2458,7 +2458,7 @@
         <v>79</v>
       </c>
       <c r="AA5" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/Project/Excel Files/Member_Registration_NI.xlsx
+++ b/Project/Excel Files/Member_Registration_NI.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35E2B75-806F-4008-818F-D06D20872BDB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD8BF56-80B4-4E67-9E54-D9B1DC3B5372}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,9 +80,6 @@
     <t>xpath</t>
   </si>
   <si>
-    <t>HOVER</t>
-  </si>
-  <si>
     <t>/html/body/div[1]/div[1]/nav/ul/li[1]/a</t>
   </si>
   <si>
@@ -519,6 +516,9 @@
   </si>
   <si>
     <t>SELECT1</t>
+  </si>
+  <si>
+    <t>MOVETO</t>
   </si>
 </sst>
 </file>
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,7 +907,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1009,7 +1009,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1017,10 +1017,10 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>18</v>
@@ -1037,7 +1037,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1045,10 +1045,10 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>18</v>
@@ -1065,7 +1065,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1076,7 +1076,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>18</v>
@@ -1091,16 +1091,16 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -1110,16 +1110,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -1129,16 +1129,16 @@
         <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -1148,7 +1148,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>18</v>
@@ -1160,19 +1160,19 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -1182,7 +1182,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>18</v>
@@ -1199,7 +1199,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1210,16 +1210,16 @@
         <v>9</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G20" s="2"/>
     </row>
@@ -1229,16 +1229,16 @@
         <v>9</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G21" s="2"/>
     </row>
@@ -1248,16 +1248,16 @@
         <v>9</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" s="2"/>
     </row>
@@ -1267,16 +1267,16 @@
         <v>9</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G23" s="2"/>
     </row>
@@ -1286,16 +1286,16 @@
         <v>9</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G24" s="2"/>
     </row>
@@ -1305,7 +1305,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>18</v>
@@ -1317,38 +1317,38 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G27" s="2"/>
     </row>
@@ -1358,14 +1358,14 @@
         <v>7</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G28" s="2"/>
     </row>
@@ -1377,7 +1377,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1388,7 +1388,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>8</v>
@@ -1405,7 +1405,7 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1416,16 +1416,16 @@
         <v>9</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G32" s="2"/>
     </row>
@@ -1435,16 +1435,16 @@
         <v>9</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G33" s="2"/>
     </row>
@@ -1454,16 +1454,16 @@
         <v>9</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G34" s="2"/>
     </row>
@@ -1475,7 +1475,7 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -1486,7 +1486,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>18</v>
@@ -1498,19 +1498,19 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G37" s="2"/>
     </row>
@@ -1520,16 +1520,16 @@
         <v>9</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G38" s="2"/>
     </row>
@@ -1539,16 +1539,16 @@
         <v>9</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G39" s="2"/>
     </row>
@@ -1558,16 +1558,16 @@
         <v>9</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G40" s="2"/>
     </row>
@@ -1577,16 +1577,16 @@
         <v>9</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G41" s="2"/>
     </row>
@@ -1596,16 +1596,16 @@
         <v>9</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G42" s="2"/>
     </row>
@@ -1617,7 +1617,7 @@
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -1628,7 +1628,7 @@
         <v>7</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>8</v>
@@ -1643,16 +1643,16 @@
         <v>9</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G45" s="2"/>
     </row>
@@ -1664,7 +1664,7 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -1675,7 +1675,7 @@
         <v>7</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>18</v>
@@ -1687,10 +1687,10 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>8</v>
@@ -1705,16 +1705,16 @@
         <v>7</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G49" s="2"/>
     </row>
@@ -1726,7 +1726,7 @@
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -1737,7 +1737,7 @@
         <v>7</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>8</v>
@@ -1749,10 +1749,10 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>8</v>
@@ -1769,7 +1769,7 @@
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -1780,16 +1780,16 @@
         <v>7</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G54" s="2"/>
     </row>
@@ -1799,7 +1799,7 @@
         <v>7</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>8</v>
@@ -1816,7 +1816,7 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -1827,7 +1827,7 @@
         <v>7</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>18</v>
@@ -1839,19 +1839,19 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G58" s="2"/>
     </row>
@@ -1863,7 +1863,7 @@
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -1874,16 +1874,16 @@
         <v>9</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G60" s="2"/>
     </row>
@@ -1893,7 +1893,7 @@
         <v>7</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>18</v>
@@ -1910,7 +1910,7 @@
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -1921,7 +1921,7 @@
         <v>7</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>18</v>
@@ -1933,19 +1933,19 @@
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G64" s="2"/>
     </row>
@@ -1957,7 +1957,7 @@
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -1968,16 +1968,16 @@
         <v>9</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G66" s="2"/>
     </row>
@@ -1987,7 +1987,7 @@
         <v>7</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>18</v>
@@ -2048,417 +2048,417 @@
   <sheetData>
     <row r="1" spans="1:27" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="L1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="P1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="R1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="Y1" s="8" t="s">
-        <v>137</v>
-      </c>
       <c r="Z1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="J2" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="T2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="U2" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="W2" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="X2" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>96</v>
-      </c>
       <c r="I3" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L3" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>108</v>
-      </c>
       <c r="N3" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O3" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="T3" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="P3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="U3" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z3" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="H4" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M4" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="N4" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="N4" s="8" t="s">
-        <v>110</v>
-      </c>
       <c r="O4" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X4" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z4" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA4" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>95</v>
-      </c>
       <c r="H5" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J5" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="L5" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>105</v>
-      </c>
       <c r="M5" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="W5" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="W5" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="X5" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y5" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z5" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA5" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
